--- a/docs/attack-excel-files/v17.1/ics-attack/ics-attack-v17.1-groups.xlsx
+++ b/docs/attack-excel-files/v17.1/ics-attack/ics-attack-v17.1-groups.xlsx
@@ -483,10 +483,10 @@
     <t>(Citation: Microsoft Threat Actor Naming July 2023), (Citation: Mandiant FIN12 Oct 2021), (Citation: Secureworks Gold Blackburn Mar 2022), (Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: IBM X-Force ITG23 Oct 2021), (Citation: Microsoft Threat Actor Naming July 2023), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Jeff Jones May 2018),(Citation: Dragos),(Citation: ICS-CERT October 2017),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec March 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),(Citation: Andy Greenburg June 2019),(Citation: Dragos),</t>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Jeff Jones May 2018),(Citation: ICS-CERT October 2017),</t>
+  </si>
+  <si>
+    <t>,(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019),(Citation: Andy Greenburg June 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -501,7 +501,7 @@
     <t>(Citation: FireEye FIN6 Apr 2019),,</t>
   </si>
   <si>
-    <t>(Citation: FBI Flash FIN7 USB),(Citation: IBM Ransomware Trends September 2020),(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Carbon Spider August 2021),,</t>
+    <t>(Citation: Microsoft Ransomware as a Service),(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: FBI Flash FIN7 USB),,</t>
   </si>
   <si>
     <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
@@ -510,19 +510,19 @@
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
   </si>
   <si>
     <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
   </si>
   <si>
-    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: Dragos Crashoverride 2018),(Citation: iSIGHT Sandworm 2014),(Citation: Secureworks IRON VIKING),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: NCSC CISA Cyclops Blink Advisory February 2022),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: ESET Industroyer),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Industroyer2 ESET April 2022),(Citation: Dragos Crashoverride 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos October 2018),(Citation: ICS CERT September 2018),(Citation: Dragos Inc. June 2017),(Citation: ICS-CERT December 2014),(Citation: Andy Greenberg June 2017),(Citation: Joe Slowik August 2019),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: NCSC Sandworm Feb 2020),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC CISA Cyclops Blink Advisory February 2022),(Citation: Industroyer2 ESET April 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Dragos Crashoverride 2017),(Citation: iSIGHT Sandworm 2014),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Dragos October 2018),(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Dragos Inc. June 2017),(Citation: Joe Slowik August 2019),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
-    <t>(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,</t>
+    <t>(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),,</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/attack-excel-files/v17.1/ics-attack/ics-attack-v17.1-groups.xlsx
+++ b/docs/attack-excel-files/v17.1/ics-attack/ics-attack-v17.1-groups.xlsx
@@ -483,10 +483,10 @@
     <t>(Citation: Microsoft Threat Actor Naming July 2023), (Citation: Mandiant FIN12 Oct 2021), (Citation: Secureworks Gold Blackburn Mar 2022), (Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: IBM X-Force ITG23 Oct 2021), (Citation: Microsoft Threat Actor Naming July 2023), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Jeff Jones May 2018),(Citation: ICS-CERT October 2017),</t>
-  </si>
-  <si>
-    <t>,(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019),(Citation: Andy Greenburg June 2019),</t>
+    <t>,(Citation: ICS-CERT October 2017),(Citation: Jeff Jones May 2018),(Citation: Eduard Kovacs May 2018),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec March 2019),(Citation: Junnosuke Yagi March 2017),(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Andy Greenburg June 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -510,19 +510,19 @@
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: FireEye WannaCry 2017),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),(Citation: LogRhythm WannaCry),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
-  </si>
-  <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: NCSC Sandworm Feb 2020),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC CISA Cyclops Blink Advisory February 2022),(Citation: Industroyer2 ESET April 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Dragos Crashoverride 2018),(Citation: Secureworks IRON VIKING),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Dragos Crashoverride 2017),(Citation: iSIGHT Sandworm 2014),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Dragos October 2018),(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Dragos Inc. June 2017),(Citation: Joe Slowik August 2019),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),,</t>
+    <t>(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
+  </si>
+  <si>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: NCSC CISA Cyclops Blink Advisory February 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Secureworks IRON VIKING),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: NCSC Sandworm Feb 2020),(Citation: Dragos Inc. June 2017),(Citation: Dragos October 2018),(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Andy Greenberg June 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: Microsoft Ransomware as a Service),,</t>
   </si>
   <si>
     <t>source ID</t>
